--- a/csv/model/CIMS_market share limits/formula_CIMS_market share limits_QC.xlsx
+++ b/csv/model/CIMS_market share limits/formula_CIMS_market share limits_QC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\xCIMS\cims-models\csv\model\CIMS_market share limits\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{447BFFFC-0530-40EC-AA65-5A23F2FCD4AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{69852090-43A5-4B42-8CF2-1ED29C61D91A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-1800" windowWidth="51840" windowHeight="21120" xr2:uid="{D646AB7F-E074-45E3-AA7A-B2B4A807037D}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{84751B2B-6311-4679-9205-93000E4D5CD3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1297,21 +1297,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09777F22-4D0B-44FF-943A-8A7D9266AA51}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17825EE6-E95B-4A40-BA87-96A703A9B42C}">
   <dimension ref="A1:X254"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:X254"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1385,7 +1385,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1444,7 +1444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -1503,7 +1503,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -1562,7 +1562,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -1621,7 +1621,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -1680,7 +1680,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -1739,7 +1739,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -1798,7 +1798,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -1857,7 +1857,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -1916,7 +1916,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -1975,7 +1975,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -2034,7 +2034,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -2093,7 +2093,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -2152,7 +2152,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -2211,7 +2211,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>41</v>
       </c>
@@ -2270,7 +2270,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -2329,7 +2329,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -2388,7 +2388,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -2447,7 +2447,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>47</v>
       </c>
@@ -2506,7 +2506,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>47</v>
       </c>
@@ -2565,7 +2565,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>51</v>
       </c>
@@ -2624,7 +2624,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>51</v>
       </c>
@@ -2683,7 +2683,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>51</v>
       </c>
@@ -2742,7 +2742,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>51</v>
       </c>
@@ -2801,7 +2801,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>56</v>
       </c>
@@ -2860,7 +2860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>56</v>
       </c>
@@ -2919,7 +2919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>61</v>
       </c>
@@ -2978,7 +2978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>64</v>
       </c>
@@ -3037,7 +3037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>64</v>
       </c>
@@ -3096,7 +3096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>68</v>
       </c>
@@ -3155,7 +3155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>69</v>
       </c>
@@ -3214,7 +3214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>73</v>
       </c>
@@ -3273,7 +3273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>75</v>
       </c>
@@ -3332,7 +3332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>77</v>
       </c>
@@ -3391,7 +3391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>80</v>
       </c>
@@ -3450,7 +3450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>83</v>
       </c>
@@ -3509,7 +3509,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>85</v>
       </c>
@@ -3568,7 +3568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>85</v>
       </c>
@@ -3627,7 +3627,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>85</v>
       </c>
@@ -3686,7 +3686,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>85</v>
       </c>
@@ -3745,7 +3745,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>85</v>
       </c>
@@ -3804,7 +3804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>90</v>
       </c>
@@ -3863,7 +3863,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>90</v>
       </c>
@@ -3922,7 +3922,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>90</v>
       </c>
@@ -3981,7 +3981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>90</v>
       </c>
@@ -4040,7 +4040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>93</v>
       </c>
@@ -4099,7 +4099,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>93</v>
       </c>
@@ -4158,7 +4158,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>93</v>
       </c>
@@ -4217,7 +4217,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>93</v>
       </c>
@@ -4276,7 +4276,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>95</v>
       </c>
@@ -4335,7 +4335,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>95</v>
       </c>
@@ -4394,7 +4394,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>95</v>
       </c>
@@ -4453,7 +4453,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>96</v>
       </c>
@@ -4512,7 +4512,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>96</v>
       </c>
@@ -4571,7 +4571,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>96</v>
       </c>
@@ -4630,7 +4630,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>97</v>
       </c>
@@ -4689,7 +4689,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>97</v>
       </c>
@@ -4748,7 +4748,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>99</v>
       </c>
@@ -4807,7 +4807,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>99</v>
       </c>
@@ -4866,7 +4866,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>100</v>
       </c>
@@ -4925,7 +4925,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>101</v>
       </c>
@@ -4984,7 +4984,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>102</v>
       </c>
@@ -5043,7 +5043,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>103</v>
       </c>
@@ -5102,7 +5102,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>104</v>
       </c>
@@ -5161,7 +5161,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>104</v>
       </c>
@@ -5220,7 +5220,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>106</v>
       </c>
@@ -5279,7 +5279,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>106</v>
       </c>
@@ -5338,7 +5338,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>106</v>
       </c>
@@ -5397,7 +5397,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>108</v>
       </c>
@@ -5456,7 +5456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>112</v>
       </c>
@@ -5515,7 +5515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>112</v>
       </c>
@@ -5574,7 +5574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>116</v>
       </c>
@@ -5633,7 +5633,7 @@
         <v>4.1634177000000001E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>116</v>
       </c>
@@ -5692,7 +5692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>116</v>
       </c>
@@ -5751,7 +5751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>121</v>
       </c>
@@ -5810,7 +5810,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>121</v>
       </c>
@@ -5869,7 +5869,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>121</v>
       </c>
@@ -5928,7 +5928,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>121</v>
       </c>
@@ -5987,7 +5987,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>122</v>
       </c>
@@ -6046,7 +6046,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>122</v>
       </c>
@@ -6105,7 +6105,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>122</v>
       </c>
@@ -6164,7 +6164,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>124</v>
       </c>
@@ -6223,7 +6223,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>124</v>
       </c>
@@ -6282,7 +6282,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>124</v>
       </c>
@@ -6341,7 +6341,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>125</v>
       </c>
@@ -6400,7 +6400,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>125</v>
       </c>
@@ -6459,7 +6459,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>125</v>
       </c>
@@ -6518,7 +6518,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>126</v>
       </c>
@@ -6577,7 +6577,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>127</v>
       </c>
@@ -6636,7 +6636,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>128</v>
       </c>
@@ -6695,7 +6695,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>129</v>
       </c>
@@ -6754,7 +6754,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>130</v>
       </c>
@@ -6813,7 +6813,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>131</v>
       </c>
@@ -6872,7 +6872,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>132</v>
       </c>
@@ -6931,7 +6931,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>135</v>
       </c>
@@ -6990,7 +6990,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>136</v>
       </c>
@@ -7049,7 +7049,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>138</v>
       </c>
@@ -7108,7 +7108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>138</v>
       </c>
@@ -7167,7 +7167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>143</v>
       </c>
@@ -7226,7 +7226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>146</v>
       </c>
@@ -7285,7 +7285,7 @@
         <v>0.27422680412371098</v>
       </c>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>146</v>
       </c>
@@ -7344,7 +7344,7 @@
         <v>0.27371134020618498</v>
       </c>
     </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>146</v>
       </c>
@@ -7403,7 +7403,7 @@
         <v>0.12603092783505199</v>
       </c>
     </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>146</v>
       </c>
@@ -7462,7 +7462,7 @@
         <v>0.12603092783505199</v>
       </c>
     </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>152</v>
       </c>
@@ -7521,7 +7521,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>155</v>
       </c>
@@ -7580,7 +7580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>155</v>
       </c>
@@ -7639,7 +7639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>156</v>
       </c>
@@ -7698,7 +7698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>156</v>
       </c>
@@ -7757,7 +7757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>158</v>
       </c>
@@ -7816,7 +7816,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>158</v>
       </c>
@@ -7875,7 +7875,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>159</v>
       </c>
@@ -7934,7 +7934,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>159</v>
       </c>
@@ -7993,7 +7993,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>159</v>
       </c>
@@ -8052,7 +8052,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>160</v>
       </c>
@@ -8111,7 +8111,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>160</v>
       </c>
@@ -8170,7 +8170,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>160</v>
       </c>
@@ -8229,7 +8229,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>161</v>
       </c>
@@ -8288,7 +8288,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>161</v>
       </c>
@@ -8347,7 +8347,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>161</v>
       </c>
@@ -8406,7 +8406,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>162</v>
       </c>
@@ -8465,7 +8465,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>163</v>
       </c>
@@ -8524,7 +8524,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>164</v>
       </c>
@@ -8583,7 +8583,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>165</v>
       </c>
@@ -8642,7 +8642,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>166</v>
       </c>
@@ -8701,7 +8701,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>167</v>
       </c>
@@ -8760,7 +8760,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>168</v>
       </c>
@@ -8819,7 +8819,7 @@
         <v>0.14545</v>
       </c>
     </row>
-    <row r="129" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>168</v>
       </c>
@@ -8878,7 +8878,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="130" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>168</v>
       </c>
@@ -8937,7 +8937,7 @@
         <v>0.24726999999999999</v>
       </c>
     </row>
-    <row r="131" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>168</v>
       </c>
@@ -8996,7 +8996,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="132" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>168</v>
       </c>
@@ -9055,7 +9055,7 @@
         <v>6.182E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>168</v>
       </c>
@@ -9114,7 +9114,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="134" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>171</v>
       </c>
@@ -9173,7 +9173,7 @@
         <v>0.14545</v>
       </c>
     </row>
-    <row r="135" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>171</v>
       </c>
@@ -9232,7 +9232,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="136" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>171</v>
       </c>
@@ -9291,7 +9291,7 @@
         <v>0.24726999999999999</v>
       </c>
     </row>
-    <row r="137" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>171</v>
       </c>
@@ -9350,7 +9350,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="138" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>171</v>
       </c>
@@ -9409,7 +9409,7 @@
         <v>6.182E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>171</v>
       </c>
@@ -9468,7 +9468,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="140" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>172</v>
       </c>
@@ -9527,7 +9527,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="141" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>172</v>
       </c>
@@ -9586,7 +9586,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="142" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>174</v>
       </c>
@@ -9645,7 +9645,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="143" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>174</v>
       </c>
@@ -9704,7 +9704,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="144" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>175</v>
       </c>
@@ -9763,7 +9763,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="145" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>176</v>
       </c>
@@ -9822,7 +9822,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="146" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>177</v>
       </c>
@@ -9881,7 +9881,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="147" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>178</v>
       </c>
@@ -9940,7 +9940,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="148" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>179</v>
       </c>
@@ -9999,7 +9999,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="149" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>180</v>
       </c>
@@ -10058,7 +10058,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="150" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>181</v>
       </c>
@@ -10117,7 +10117,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="151" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>182</v>
       </c>
@@ -10176,7 +10176,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="152" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>183</v>
       </c>
@@ -10235,7 +10235,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="153" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>184</v>
       </c>
@@ -10294,7 +10294,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="154" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>184</v>
       </c>
@@ -10353,7 +10353,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="155" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>185</v>
       </c>
@@ -10412,7 +10412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>189</v>
       </c>
@@ -10471,7 +10471,7 @@
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="157" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>189</v>
       </c>
@@ -10530,7 +10530,7 @@
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>189</v>
       </c>
@@ -10589,7 +10589,7 @@
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="159" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>189</v>
       </c>
@@ -10648,7 +10648,7 @@
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="160" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>189</v>
       </c>
@@ -10707,7 +10707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>189</v>
       </c>
@@ -10766,7 +10766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>194</v>
       </c>
@@ -10825,7 +10825,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="163" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>194</v>
       </c>
@@ -10884,7 +10884,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="164" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>194</v>
       </c>
@@ -10943,7 +10943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>195</v>
       </c>
@@ -11002,7 +11002,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="166" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>195</v>
       </c>
@@ -11061,7 +11061,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="167" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>196</v>
       </c>
@@ -11120,7 +11120,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="168" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>196</v>
       </c>
@@ -11179,7 +11179,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="169" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>197</v>
       </c>
@@ -11238,7 +11238,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="170" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>197</v>
       </c>
@@ -11297,7 +11297,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="171" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>197</v>
       </c>
@@ -11356,7 +11356,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="172" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>198</v>
       </c>
@@ -11415,7 +11415,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="173" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>198</v>
       </c>
@@ -11474,7 +11474,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="174" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>198</v>
       </c>
@@ -11533,7 +11533,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="175" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>199</v>
       </c>
@@ -11592,7 +11592,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="176" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>200</v>
       </c>
@@ -11651,7 +11651,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="177" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>201</v>
       </c>
@@ -11710,7 +11710,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="178" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>202</v>
       </c>
@@ -11769,7 +11769,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="179" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>203</v>
       </c>
@@ -11828,7 +11828,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="180" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>204</v>
       </c>
@@ -11887,7 +11887,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="181" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>205</v>
       </c>
@@ -11946,7 +11946,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="182" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>205</v>
       </c>
@@ -12005,7 +12005,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="183" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>206</v>
       </c>
@@ -12064,7 +12064,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="184" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>206</v>
       </c>
@@ -12123,7 +12123,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="185" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>208</v>
       </c>
@@ -12182,7 +12182,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="186" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>208</v>
       </c>
@@ -12241,7 +12241,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="187" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>209</v>
       </c>
@@ -12300,7 +12300,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="188" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>213</v>
       </c>
@@ -12359,7 +12359,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="189" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>216</v>
       </c>
@@ -12418,7 +12418,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="190" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>219</v>
       </c>
@@ -12477,7 +12477,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="191" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>219</v>
       </c>
@@ -12536,7 +12536,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="192" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>222</v>
       </c>
@@ -12595,7 +12595,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="193" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>225</v>
       </c>
@@ -12654,7 +12654,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="194" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>225</v>
       </c>
@@ -12713,7 +12713,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="195" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>225</v>
       </c>
@@ -12772,7 +12772,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="196" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>225</v>
       </c>
@@ -12831,7 +12831,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="197" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>229</v>
       </c>
@@ -12890,7 +12890,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="198" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>229</v>
       </c>
@@ -12949,7 +12949,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="199" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>229</v>
       </c>
@@ -13008,7 +13008,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="200" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>229</v>
       </c>
@@ -13067,7 +13067,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="201" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>233</v>
       </c>
@@ -13126,7 +13126,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="202" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>236</v>
       </c>
@@ -13185,7 +13185,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="203" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>237</v>
       </c>
@@ -13244,7 +13244,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="204" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>237</v>
       </c>
@@ -13303,7 +13303,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="205" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>239</v>
       </c>
@@ -13362,7 +13362,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="206" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>239</v>
       </c>
@@ -13421,7 +13421,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="207" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>239</v>
       </c>
@@ -13480,7 +13480,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="208" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>240</v>
       </c>
@@ -13539,7 +13539,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="209" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>240</v>
       </c>
@@ -13598,7 +13598,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="210" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>241</v>
       </c>
@@ -13657,7 +13657,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="211" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>241</v>
       </c>
@@ -13716,7 +13716,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="212" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>241</v>
       </c>
@@ -13775,7 +13775,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="213" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>242</v>
       </c>
@@ -13834,7 +13834,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="214" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>242</v>
       </c>
@@ -13893,7 +13893,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="215" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>242</v>
       </c>
@@ -13952,7 +13952,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="216" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>243</v>
       </c>
@@ -14011,7 +14011,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="217" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>244</v>
       </c>
@@ -14070,7 +14070,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="218" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>245</v>
       </c>
@@ -14129,7 +14129,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="219" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>246</v>
       </c>
@@ -14188,7 +14188,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="220" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>247</v>
       </c>
@@ -14247,7 +14247,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="221" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>248</v>
       </c>
@@ -14306,7 +14306,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="222" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>249</v>
       </c>
@@ -14365,7 +14365,7 @@
         <v>0.90500000000000003</v>
       </c>
     </row>
-    <row r="223" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>249</v>
       </c>
@@ -14424,7 +14424,7 @@
         <v>0.89500000000000002</v>
       </c>
     </row>
-    <row r="224" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>249</v>
       </c>
@@ -14483,7 +14483,7 @@
         <v>0.105</v>
       </c>
     </row>
-    <row r="225" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>249</v>
       </c>
@@ -14542,7 +14542,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="226" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>251</v>
       </c>
@@ -14601,7 +14601,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="227" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>251</v>
       </c>
@@ -14660,7 +14660,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="228" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>251</v>
       </c>
@@ -14719,7 +14719,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="229" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>251</v>
       </c>
@@ -14778,7 +14778,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="230" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>252</v>
       </c>
@@ -14837,7 +14837,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="231" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>252</v>
       </c>
@@ -14896,7 +14896,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="232" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>252</v>
       </c>
@@ -14955,7 +14955,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="233" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>253</v>
       </c>
@@ -15014,7 +15014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>256</v>
       </c>
@@ -15073,7 +15073,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="235" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>258</v>
       </c>
@@ -15132,7 +15132,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="236" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>258</v>
       </c>
@@ -15191,7 +15191,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="237" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>258</v>
       </c>
@@ -15250,7 +15250,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="238" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>258</v>
       </c>
@@ -15309,7 +15309,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="239" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>263</v>
       </c>
@@ -15368,7 +15368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>266</v>
       </c>
@@ -15427,7 +15427,7 @@
         <v>0.68235294117647005</v>
       </c>
     </row>
-    <row r="241" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>266</v>
       </c>
@@ -15486,7 +15486,7 @@
         <v>0.68235294117647005</v>
       </c>
     </row>
-    <row r="242" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>266</v>
       </c>
@@ -15545,7 +15545,7 @@
         <v>0.317647058823529</v>
       </c>
     </row>
-    <row r="243" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>266</v>
       </c>
@@ -15604,7 +15604,7 @@
         <v>0.317647058823529</v>
       </c>
     </row>
-    <row r="244" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>271</v>
       </c>
@@ -15663,7 +15663,7 @@
         <v>0.47148606999999998</v>
       </c>
     </row>
-    <row r="245" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>275</v>
       </c>
@@ -15722,7 +15722,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="246" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>279</v>
       </c>
@@ -15781,7 +15781,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="247" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>283</v>
       </c>
@@ -15840,7 +15840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>286</v>
       </c>
@@ -15899,7 +15899,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="249" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>286</v>
       </c>
@@ -15958,7 +15958,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="250" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>289</v>
       </c>
@@ -16027,7 +16027,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="251" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>289</v>
       </c>
@@ -16096,7 +16096,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="252" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>289</v>
       </c>
@@ -16165,7 +16165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>289</v>
       </c>
@@ -16234,7 +16234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>294</v>
       </c>

--- a/csv/model/CIMS_market share limits/formula_CIMS_market share limits_QC.xlsx
+++ b/csv/model/CIMS_market share limits/formula_CIMS_market share limits_QC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\xCIMS\cims-models\csv\model\CIMS_market share limits\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{69852090-43A5-4B42-8CF2-1ED29C61D91A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{600B9D75-598D-4092-A65F-B7C2DF9873F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{84751B2B-6311-4679-9205-93000E4D5CD3}"/>
+    <workbookView xWindow="34965" yWindow="3495" windowWidth="17250" windowHeight="8865" xr2:uid="{997946FA-52E2-4F6A-99E0-21C13D7C2838}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -80,13 +80,13 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>CIMS.CAN.QC.Natural Gas Extraction.Direct Heat</t>
+    <t>CIMS.CAN.QC.Natural Gas Production.Direct Heat</t>
   </si>
   <si>
     <t>QC</t>
   </si>
   <si>
-    <t>Natural Gas Extraction</t>
+    <t>Natural Gas Production</t>
   </si>
   <si>
     <t>Direct Heat</t>
@@ -1297,21 +1297,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17825EE6-E95B-4A40-BA87-96A703A9B42C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{359712A5-7920-47B5-BBB9-EFDC558920A6}">
   <dimension ref="A1:X254"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:X254"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1385,7 +1385,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1444,7 +1444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -1503,7 +1503,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -1562,7 +1562,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -1621,7 +1621,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -1680,7 +1680,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -1739,7 +1739,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -1798,7 +1798,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -1857,7 +1857,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -1916,7 +1916,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -1975,7 +1975,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -2034,7 +2034,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -2093,7 +2093,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -2152,7 +2152,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -2211,7 +2211,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>41</v>
       </c>
@@ -2270,7 +2270,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -2329,7 +2329,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -2388,7 +2388,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -2447,7 +2447,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>47</v>
       </c>
@@ -2506,7 +2506,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>47</v>
       </c>
@@ -2565,7 +2565,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>51</v>
       </c>
@@ -2624,7 +2624,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>51</v>
       </c>
@@ -2683,7 +2683,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>51</v>
       </c>
@@ -2742,7 +2742,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>51</v>
       </c>
@@ -2801,7 +2801,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>56</v>
       </c>
@@ -2860,7 +2860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>56</v>
       </c>
@@ -2919,7 +2919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>61</v>
       </c>
@@ -2978,7 +2978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>64</v>
       </c>
@@ -3037,7 +3037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>64</v>
       </c>
@@ -3096,7 +3096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>68</v>
       </c>
@@ -3155,7 +3155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>69</v>
       </c>
@@ -3214,7 +3214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>73</v>
       </c>
@@ -3273,7 +3273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>75</v>
       </c>
@@ -3332,7 +3332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>77</v>
       </c>
@@ -3391,7 +3391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>80</v>
       </c>
@@ -3450,7 +3450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>83</v>
       </c>
@@ -3509,7 +3509,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>85</v>
       </c>
@@ -3568,7 +3568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>85</v>
       </c>
@@ -3627,7 +3627,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>85</v>
       </c>
@@ -3686,7 +3686,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>85</v>
       </c>
@@ -3745,7 +3745,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>85</v>
       </c>
@@ -3804,7 +3804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>90</v>
       </c>
@@ -3863,7 +3863,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>90</v>
       </c>
@@ -3922,7 +3922,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>90</v>
       </c>
@@ -3981,7 +3981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>90</v>
       </c>
@@ -4040,7 +4040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>93</v>
       </c>
@@ -4099,7 +4099,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>93</v>
       </c>
@@ -4158,7 +4158,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>93</v>
       </c>
@@ -4217,7 +4217,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>93</v>
       </c>
@@ -4276,7 +4276,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>95</v>
       </c>
@@ -4335,7 +4335,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>95</v>
       </c>
@@ -4394,7 +4394,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>95</v>
       </c>
@@ -4453,7 +4453,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>96</v>
       </c>
@@ -4512,7 +4512,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>96</v>
       </c>
@@ -4571,7 +4571,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>96</v>
       </c>
@@ -4630,7 +4630,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>97</v>
       </c>
@@ -4689,7 +4689,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>97</v>
       </c>
@@ -4748,7 +4748,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>99</v>
       </c>
@@ -4807,7 +4807,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>99</v>
       </c>
@@ -4866,7 +4866,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>100</v>
       </c>
@@ -4925,7 +4925,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>101</v>
       </c>
@@ -4984,7 +4984,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>102</v>
       </c>
@@ -5043,7 +5043,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>103</v>
       </c>
@@ -5102,7 +5102,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>104</v>
       </c>
@@ -5161,7 +5161,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>104</v>
       </c>
@@ -5220,7 +5220,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>106</v>
       </c>
@@ -5279,7 +5279,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>106</v>
       </c>
@@ -5338,7 +5338,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>106</v>
       </c>
@@ -5397,7 +5397,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>108</v>
       </c>
@@ -5456,7 +5456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>112</v>
       </c>
@@ -5515,7 +5515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>112</v>
       </c>
@@ -5574,7 +5574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>116</v>
       </c>
@@ -5633,7 +5633,7 @@
         <v>4.1634177000000001E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>116</v>
       </c>
@@ -5692,7 +5692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>116</v>
       </c>
@@ -5751,7 +5751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>121</v>
       </c>
@@ -5810,7 +5810,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>121</v>
       </c>
@@ -5869,7 +5869,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>121</v>
       </c>
@@ -5928,7 +5928,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>121</v>
       </c>
@@ -5987,7 +5987,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>122</v>
       </c>
@@ -6046,7 +6046,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>122</v>
       </c>
@@ -6105,7 +6105,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>122</v>
       </c>
@@ -6164,7 +6164,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>124</v>
       </c>
@@ -6223,7 +6223,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>124</v>
       </c>
@@ -6282,7 +6282,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>124</v>
       </c>
@@ -6341,7 +6341,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>125</v>
       </c>
@@ -6400,7 +6400,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>125</v>
       </c>
@@ -6459,7 +6459,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>125</v>
       </c>
@@ -6518,7 +6518,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>126</v>
       </c>
@@ -6577,7 +6577,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>127</v>
       </c>
@@ -6636,7 +6636,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>128</v>
       </c>
@@ -6695,7 +6695,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>129</v>
       </c>
@@ -6754,7 +6754,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>130</v>
       </c>
@@ -6813,7 +6813,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>131</v>
       </c>
@@ -6872,7 +6872,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>132</v>
       </c>
@@ -6931,7 +6931,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>135</v>
       </c>
@@ -6990,7 +6990,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>136</v>
       </c>
@@ -7049,7 +7049,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>138</v>
       </c>
@@ -7108,7 +7108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>138</v>
       </c>
@@ -7167,7 +7167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>143</v>
       </c>
@@ -7226,7 +7226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>146</v>
       </c>
@@ -7285,7 +7285,7 @@
         <v>0.27422680412371098</v>
       </c>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>146</v>
       </c>
@@ -7344,7 +7344,7 @@
         <v>0.27371134020618498</v>
       </c>
     </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>146</v>
       </c>
@@ -7403,7 +7403,7 @@
         <v>0.12603092783505199</v>
       </c>
     </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>146</v>
       </c>
@@ -7462,7 +7462,7 @@
         <v>0.12603092783505199</v>
       </c>
     </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>152</v>
       </c>
@@ -7521,7 +7521,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>155</v>
       </c>
@@ -7580,7 +7580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>155</v>
       </c>
@@ -7639,7 +7639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>156</v>
       </c>
@@ -7698,7 +7698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>156</v>
       </c>
@@ -7757,7 +7757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>158</v>
       </c>
@@ -7816,7 +7816,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>158</v>
       </c>
@@ -7875,7 +7875,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>159</v>
       </c>
@@ -7934,7 +7934,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>159</v>
       </c>
@@ -7993,7 +7993,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>159</v>
       </c>
@@ -8052,7 +8052,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>160</v>
       </c>
@@ -8111,7 +8111,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>160</v>
       </c>
@@ -8170,7 +8170,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>160</v>
       </c>
@@ -8229,7 +8229,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>161</v>
       </c>
@@ -8288,7 +8288,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>161</v>
       </c>
@@ -8347,7 +8347,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>161</v>
       </c>
@@ -8406,7 +8406,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>162</v>
       </c>
@@ -8465,7 +8465,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>163</v>
       </c>
@@ -8524,7 +8524,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>164</v>
       </c>
@@ -8583,7 +8583,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>165</v>
       </c>
@@ -8642,7 +8642,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>166</v>
       </c>
@@ -8701,7 +8701,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>167</v>
       </c>
@@ -8760,7 +8760,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>168</v>
       </c>
@@ -8819,7 +8819,7 @@
         <v>0.14545</v>
       </c>
     </row>
-    <row r="129" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>168</v>
       </c>
@@ -8878,7 +8878,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="130" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>168</v>
       </c>
@@ -8937,7 +8937,7 @@
         <v>0.24726999999999999</v>
       </c>
     </row>
-    <row r="131" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>168</v>
       </c>
@@ -8996,7 +8996,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="132" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>168</v>
       </c>
@@ -9055,7 +9055,7 @@
         <v>6.182E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>168</v>
       </c>
@@ -9114,7 +9114,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="134" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>171</v>
       </c>
@@ -9173,7 +9173,7 @@
         <v>0.14545</v>
       </c>
     </row>
-    <row r="135" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>171</v>
       </c>
@@ -9232,7 +9232,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="136" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>171</v>
       </c>
@@ -9291,7 +9291,7 @@
         <v>0.24726999999999999</v>
       </c>
     </row>
-    <row r="137" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>171</v>
       </c>
@@ -9350,7 +9350,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="138" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>171</v>
       </c>
@@ -9409,7 +9409,7 @@
         <v>6.182E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>171</v>
       </c>
@@ -9468,7 +9468,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="140" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>172</v>
       </c>
@@ -9527,7 +9527,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="141" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>172</v>
       </c>
@@ -9586,7 +9586,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="142" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>174</v>
       </c>
@@ -9645,7 +9645,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="143" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>174</v>
       </c>
@@ -9704,7 +9704,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="144" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>175</v>
       </c>
@@ -9763,7 +9763,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="145" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>176</v>
       </c>
@@ -9822,7 +9822,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="146" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>177</v>
       </c>
@@ -9881,7 +9881,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="147" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>178</v>
       </c>
@@ -9940,7 +9940,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="148" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>179</v>
       </c>
@@ -9999,7 +9999,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="149" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>180</v>
       </c>
@@ -10058,7 +10058,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="150" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>181</v>
       </c>
@@ -10117,7 +10117,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="151" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>182</v>
       </c>
@@ -10176,7 +10176,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="152" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>183</v>
       </c>
@@ -10235,7 +10235,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="153" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>184</v>
       </c>
@@ -10294,7 +10294,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="154" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>184</v>
       </c>
@@ -10353,7 +10353,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="155" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>185</v>
       </c>
@@ -10412,7 +10412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>189</v>
       </c>
@@ -10471,7 +10471,7 @@
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="157" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>189</v>
       </c>
@@ -10530,7 +10530,7 @@
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>189</v>
       </c>
@@ -10589,7 +10589,7 @@
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="159" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>189</v>
       </c>
@@ -10648,7 +10648,7 @@
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="160" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>189</v>
       </c>
@@ -10707,7 +10707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>189</v>
       </c>
@@ -10766,7 +10766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>194</v>
       </c>
@@ -10825,7 +10825,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="163" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>194</v>
       </c>
@@ -10884,7 +10884,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="164" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>194</v>
       </c>
@@ -10943,7 +10943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>195</v>
       </c>
@@ -11002,7 +11002,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="166" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>195</v>
       </c>
@@ -11061,7 +11061,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="167" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>196</v>
       </c>
@@ -11120,7 +11120,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="168" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>196</v>
       </c>
@@ -11179,7 +11179,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="169" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>197</v>
       </c>
@@ -11238,7 +11238,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="170" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>197</v>
       </c>
@@ -11297,7 +11297,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="171" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>197</v>
       </c>
@@ -11356,7 +11356,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="172" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>198</v>
       </c>
@@ -11415,7 +11415,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="173" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>198</v>
       </c>
@@ -11474,7 +11474,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="174" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>198</v>
       </c>
@@ -11533,7 +11533,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="175" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>199</v>
       </c>
@@ -11592,7 +11592,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="176" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>200</v>
       </c>
@@ -11651,7 +11651,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="177" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>201</v>
       </c>
@@ -11710,7 +11710,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="178" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>202</v>
       </c>
@@ -11769,7 +11769,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="179" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>203</v>
       </c>
@@ -11828,7 +11828,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="180" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>204</v>
       </c>
@@ -11887,7 +11887,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="181" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>205</v>
       </c>
@@ -11946,7 +11946,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="182" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>205</v>
       </c>
@@ -12005,7 +12005,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="183" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>206</v>
       </c>
@@ -12064,7 +12064,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="184" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>206</v>
       </c>
@@ -12123,7 +12123,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="185" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>208</v>
       </c>
@@ -12182,7 +12182,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="186" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>208</v>
       </c>
@@ -12241,7 +12241,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="187" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>209</v>
       </c>
@@ -12300,7 +12300,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="188" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>213</v>
       </c>
@@ -12359,7 +12359,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="189" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>216</v>
       </c>
@@ -12418,7 +12418,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="190" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>219</v>
       </c>
@@ -12477,7 +12477,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="191" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>219</v>
       </c>
@@ -12536,7 +12536,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="192" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>222</v>
       </c>
@@ -12595,7 +12595,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="193" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>225</v>
       </c>
@@ -12654,7 +12654,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="194" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>225</v>
       </c>
@@ -12713,7 +12713,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="195" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>225</v>
       </c>
@@ -12772,7 +12772,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="196" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>225</v>
       </c>
@@ -12831,7 +12831,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="197" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>229</v>
       </c>
@@ -12890,7 +12890,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="198" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>229</v>
       </c>
@@ -12949,7 +12949,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="199" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>229</v>
       </c>
@@ -13008,7 +13008,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="200" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>229</v>
       </c>
@@ -13067,7 +13067,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="201" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>233</v>
       </c>
@@ -13126,7 +13126,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="202" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>236</v>
       </c>
@@ -13185,7 +13185,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="203" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>237</v>
       </c>
@@ -13244,7 +13244,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="204" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>237</v>
       </c>
@@ -13303,7 +13303,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="205" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>239</v>
       </c>
@@ -13362,7 +13362,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="206" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>239</v>
       </c>
@@ -13421,7 +13421,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="207" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>239</v>
       </c>
@@ -13480,7 +13480,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="208" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>240</v>
       </c>
@@ -13539,7 +13539,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="209" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>240</v>
       </c>
@@ -13598,7 +13598,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="210" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>241</v>
       </c>
@@ -13657,7 +13657,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="211" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>241</v>
       </c>
@@ -13716,7 +13716,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="212" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>241</v>
       </c>
@@ -13775,7 +13775,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="213" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>242</v>
       </c>
@@ -13834,7 +13834,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="214" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>242</v>
       </c>
@@ -13893,7 +13893,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="215" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>242</v>
       </c>
@@ -13952,7 +13952,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="216" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>243</v>
       </c>
@@ -14011,7 +14011,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="217" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>244</v>
       </c>
@@ -14070,7 +14070,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="218" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>245</v>
       </c>
@@ -14129,7 +14129,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="219" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>246</v>
       </c>
@@ -14188,7 +14188,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="220" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>247</v>
       </c>
@@ -14247,7 +14247,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="221" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>248</v>
       </c>
@@ -14306,7 +14306,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="222" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>249</v>
       </c>
@@ -14365,7 +14365,7 @@
         <v>0.90500000000000003</v>
       </c>
     </row>
-    <row r="223" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>249</v>
       </c>
@@ -14424,7 +14424,7 @@
         <v>0.89500000000000002</v>
       </c>
     </row>
-    <row r="224" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>249</v>
       </c>
@@ -14483,7 +14483,7 @@
         <v>0.105</v>
       </c>
     </row>
-    <row r="225" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>249</v>
       </c>
@@ -14542,7 +14542,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="226" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>251</v>
       </c>
@@ -14601,7 +14601,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="227" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>251</v>
       </c>
@@ -14660,7 +14660,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="228" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>251</v>
       </c>
@@ -14719,7 +14719,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="229" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>251</v>
       </c>
@@ -14778,7 +14778,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="230" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>252</v>
       </c>
@@ -14837,7 +14837,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="231" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>252</v>
       </c>
@@ -14896,7 +14896,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="232" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>252</v>
       </c>
@@ -14955,7 +14955,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="233" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>253</v>
       </c>
@@ -15014,7 +15014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>256</v>
       </c>
@@ -15073,7 +15073,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="235" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>258</v>
       </c>
@@ -15132,7 +15132,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="236" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>258</v>
       </c>
@@ -15191,7 +15191,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="237" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>258</v>
       </c>
@@ -15250,7 +15250,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="238" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>258</v>
       </c>
@@ -15309,7 +15309,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="239" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>263</v>
       </c>
@@ -15368,7 +15368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>266</v>
       </c>
@@ -15427,7 +15427,7 @@
         <v>0.68235294117647005</v>
       </c>
     </row>
-    <row r="241" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>266</v>
       </c>
@@ -15486,7 +15486,7 @@
         <v>0.68235294117647005</v>
       </c>
     </row>
-    <row r="242" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>266</v>
       </c>
@@ -15545,7 +15545,7 @@
         <v>0.317647058823529</v>
       </c>
     </row>
-    <row r="243" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>266</v>
       </c>
@@ -15604,7 +15604,7 @@
         <v>0.317647058823529</v>
       </c>
     </row>
-    <row r="244" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>271</v>
       </c>
@@ -15663,7 +15663,7 @@
         <v>0.47148606999999998</v>
       </c>
     </row>
-    <row r="245" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>275</v>
       </c>
@@ -15722,7 +15722,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="246" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>279</v>
       </c>
@@ -15781,7 +15781,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="247" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>283</v>
       </c>
@@ -15840,7 +15840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>286</v>
       </c>
@@ -15899,7 +15899,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="249" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>286</v>
       </c>
@@ -15958,7 +15958,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="250" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>289</v>
       </c>
@@ -16027,7 +16027,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="251" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>289</v>
       </c>
@@ -16096,7 +16096,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="252" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>289</v>
       </c>
@@ -16165,7 +16165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>289</v>
       </c>
@@ -16234,7 +16234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>294</v>
       </c>
